--- a/Nicolas Sparkling Dataset.xlsx
+++ b/Nicolas Sparkling Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaellaASHRAF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaellaASHRAF\OneDrive - Pricing One SA\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6B3EF-643D-431F-8266-A37F733EDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80FD6A-9C75-416D-971B-343F5801EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Raphaella ASHRAF" refreshedDate="45895.938107870374" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Raphaella ASHRAF" refreshedDate="45896.53486550926" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="0"/>
   <cacheHierarchies count="2647">

--- a/Nicolas Sparkling Dataset.xlsx
+++ b/Nicolas Sparkling Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaphaellaASHRAF\OneDrive - Pricing One SA\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80FD6A-9C75-416D-971B-343F5801EEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A1B84-B7B2-45F1-94BE-8C8086733A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="3414" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,8 +47,258 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <metadataStrings count="12">
+    <s v="pbiazure://api.powerbi.com f9d0d7e3-79df-4439-aadd-a36fbae1fff7 Model"/>
+    <s v="{[Products].[Segment].[All]}"/>
+    <s v="{[Market].[Area].&amp;[REVENUE]}"/>
+    <s v="{[Products].[Category].[All]}"/>
+    <s v="{[Market].[Region].[All]}"/>
+    <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Products].[Sector].[All]}"/>
+    <s v="{[Products].[SubSegment].[All]}"/>
+    <s v="{[Products].[SubCategory].[All]}"/>
+    <s v="{[Scope].[Scope].&amp;[Category]}"/>
+    <s v="{[Market].[Channel].&amp;[CA E]}"/>
+    <s v="{[Products].[Top Brands].&amp;[Nicolas]}"/>
+  </metadataStrings>
+  <mdxMetadata count="11">
+    <mdx n="0" f="s">
+      <ms ns="1" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="2" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="3" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="4" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="5" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="6" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="7" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="8" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="9" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="10" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="11" c="0"/>
+    </mdx>
+  </mdxMetadata>
+  <valueMetadata count="11">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>Jan-23</t>
+  </si>
+  <si>
+    <t>Feb-23</t>
+  </si>
+  <si>
+    <t>Mar-23</t>
+  </si>
+  <si>
+    <t>Apr-23</t>
+  </si>
+  <si>
+    <t>May-23</t>
+  </si>
+  <si>
+    <t>Jun-23</t>
+  </si>
+  <si>
+    <t>Jul-23</t>
+  </si>
+  <si>
+    <t>Aug-23</t>
+  </si>
+  <si>
+    <t>Sep-23</t>
+  </si>
+  <si>
+    <t>Oct-23</t>
+  </si>
+  <si>
+    <t>Nov-23</t>
+  </si>
+  <si>
+    <t>Dec-23</t>
+  </si>
+  <si>
+    <t>Jan-24</t>
+  </si>
+  <si>
+    <t>Feb-24</t>
+  </si>
+  <si>
+    <t>Mar-24</t>
+  </si>
+  <si>
+    <t>Apr-24</t>
+  </si>
+  <si>
+    <t>May-24</t>
+  </si>
+  <si>
+    <t>Jun-24</t>
+  </si>
+  <si>
+    <t>Jul-24</t>
+  </si>
+  <si>
+    <t>Aug-24</t>
+  </si>
+  <si>
+    <t>Sep-24</t>
+  </si>
+  <si>
+    <t>Oct-24</t>
+  </si>
+  <si>
+    <t>Nov-24</t>
+  </si>
+  <si>
+    <t>Dec-24</t>
+  </si>
+  <si>
+    <t>Jan-25</t>
+  </si>
+  <si>
+    <t>Feb-25</t>
+  </si>
+  <si>
+    <t>Mar-25</t>
+  </si>
+  <si>
+    <t>Apr-25</t>
+  </si>
+  <si>
+    <t>May-25</t>
+  </si>
+  <si>
+    <t>Jun-25</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Value Sales</t>
+  </si>
+  <si>
+    <t>MonthYear</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Top Brands</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>SubSegment</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Av Price/KG</t>
+  </si>
+  <si>
+    <t>CA E</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;;#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,117 +713,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -619,17 +758,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -689,15 +822,85 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Raphaella ASHRAF" refreshedDate="45896.53486550926" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45898.184309259261" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="0"/>
+  <cacheFields count="14">
+    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems count="30">
+        <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-23]" c="Feb-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-23]" c="Mar-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Apr-23]" c="Apr-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[May-23]" c="May-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jun-23]" c="Jun-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jul-23]" c="Jul-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Aug-23]" c="Aug-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Sep-23]" c="Sep-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Oct-23]" c="Oct-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Nov-23]" c="Nov-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Dec-23]" c="Dec-23"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jan-24]" c="Jan-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-24]" c="Feb-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-24]" c="Mar-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Apr-24]" c="Apr-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[May-24]" c="May-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jun-24]" c="Jun-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jul-24]" c="Jul-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Aug-24]" c="Aug-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Sep-24]" c="Sep-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Oct-24]" c="Oct-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Nov-24]" c="Nov-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Dec-24]" c="Dec-24"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jan-25]" c="Jan-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Feb-25]" c="Feb-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Mar-25]" c="Mar-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Apr-25]" c="Apr-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[May-25]" c="May-25"/>
+        <s v="[Calendar].[MonthYear].&amp;[Jun-25]" c="Jun-25"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="149" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Top Brands].[Top Brands]" caption="Top Brands" numFmtId="0" hierarchy="113" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Market].[Region].[Region]" caption="Region" numFmtId="0" hierarchy="64" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Market].[Channel].[Channel]" caption="Channel" numFmtId="0" hierarchy="59" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="105" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="106" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="112" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="438" level="32767"/>
+    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="540" level="32767"/>
+  </cacheFields>
   <cacheHierarchies count="2647">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Base Price Bracket].[Base Price Bracket]" caption="Base Price Bracket" attribute="1" defaultMemberUniqueName="[Base Price Bracket].[Base Price Bracket].[All]" allUniqueName="[Base Price Bracket].[Base Price Bracket].[All]" dimensionUniqueName="[Base Price Bracket]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[1. FY Hierarchy]" caption="1. FY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[1. FY Hierarchy].[All]" allUniqueName="[Calendar].[1. FY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[2. FY Tabular]" caption="2. FY Tabular" time="1" defaultMemberUniqueName="[Calendar].[2. FY Tabular].[All]" allUniqueName="[Calendar].[2. FY Tabular].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[3. CY Hierarchy]" caption="3. CY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[3. CY Hierarchy].[All]" allUniqueName="[Calendar].[3. CY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[1. FY Hierarchy]" caption="1. FY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[1. FY Hierarchy].[All]" allUniqueName="[Calendar].[1. FY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[2. FY Tabular]" caption="2. FY Tabular" time="1" defaultMemberUniqueName="[Calendar].[2. FY Tabular].[All]" allUniqueName="[Calendar].[2. FY Tabular].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[3. CY Hierarchy]" caption="3. CY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[3. CY Hierarchy].[All]" allUniqueName="[Calendar].[3. CY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Active]" caption="Active" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Active].[All]" allUniqueName="[Calendar].[Active].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Calendar].[Date].[All]" allUniqueName="[Calendar].[Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Day].[All]" allUniqueName="[Calendar].[Day].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -728,7 +931,12 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthLong]" caption="MonthLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthLong].[All]" allUniqueName="[Calendar].[MonthLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthNum]" caption="MonthNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthNum].[All]" allUniqueName="[Calendar].[MonthNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthStart]" caption="MonthStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthStart].[All]" allUniqueName="[Calendar].[MonthStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearNum]" caption="MonthYearNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearNum].[All]" allUniqueName="[Calendar].[MonthYearNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -751,13 +959,33 @@
     <cacheHierarchy uniqueName="[Cumulative Share].[Cumulative Share]" caption="Cumulative Share" attribute="1" defaultMemberUniqueName="[Cumulative Share].[Cumulative Share].[All]" allUniqueName="[Cumulative Share].[Cumulative Share].[All]" dimensionUniqueName="[Cumulative Share]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Last Refresh].[Last Refresh Date]" caption="Last Refresh Date" attribute="1" time="1" defaultMemberUniqueName="[Last Refresh].[Last Refresh Date].[All]" allUniqueName="[Last Refresh].[Last Refresh Date].[All]" dimensionUniqueName="[Last Refresh]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Last Refresh].[Last Refresh Time]" caption="Last Refresh Time" attribute="1" time="1" defaultMemberUniqueName="[Last Refresh].[Last Refresh Time].[All]" allUniqueName="[Last Refresh].[Last Refresh Time].[All]" dimensionUniqueName="[Last Refresh]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Country Hierarchy]" caption="Country Hierarchy" defaultMemberUniqueName="[Market].[Country Hierarchy].[All]" allUniqueName="[Market].[Country Hierarchy].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Market].[Country Hierarchy]" caption="Country Hierarchy" defaultMemberUniqueName="[Market].[Country Hierarchy].[All]" allUniqueName="[Market].[Country Hierarchy].[All]" dimensionUniqueName="[Market]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Market].[Level]" caption="Level" attribute="1" defaultMemberUniqueName="[Market].[Level].[All]" allUniqueName="[Market].[Level].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Pack Size Group].[Pack Size Group]" caption="Pack Size Group" attribute="1" defaultMemberUniqueName="[Pack Size Group].[Pack Size Group].[All]" allUniqueName="[Pack Size Group].[Pack Size Group].[All]" dimensionUniqueName="[Pack Size Group]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PnL].[PnL Elements]" caption="PnL Elements" attribute="1" defaultMemberUniqueName="[PnL].[PnL Elements].[All]" allUniqueName="[PnL].[PnL Elements].[All]" dimensionUniqueName="[PnL]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -774,9 +1002,13 @@
     <cacheHierarchy uniqueName="[Products].[BrandType]" caption="BrandType" attribute="1" defaultMemberUniqueName="[Products].[BrandType].[All]" allUniqueName="[Products].[BrandType].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle]" caption="Bundle" attribute="1" defaultMemberUniqueName="[Products].[Bundle].[All]" allUniqueName="[Products].[Bundle].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle Size Bracket]" caption="Bundle Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Bundle Size Bracket].[All]" allUniqueName="[Products].[Bundle Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Business Name]" caption="Business Name" attribute="1" defaultMemberUniqueName="[Products].[Business Name].[All]" allUniqueName="[Products].[Business Name].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Company Logo URL]" caption="Company Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Company Logo URL].[All]" allUniqueName="[Products].[Company Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Financials]" caption="Financials" attribute="1" defaultMemberUniqueName="[Products].[Financials].[All]" allUniqueName="[Products].[Financials].[All]" dimensionUniqueName="[Products]" displayFolder="zKeys" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -785,10 +1017,12 @@
     <cacheHierarchy uniqueName="[Products].[Item]" caption="Item" attribute="1" defaultMemberUniqueName="[Products].[Item].[All]" allUniqueName="[Products].[Item].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Key Company]" caption="Key Company" attribute="1" defaultMemberUniqueName="[Products].[Key Company].[All]" allUniqueName="[Products].[Key Company].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Manufacturer]" caption="Manufacturer" attribute="1" defaultMemberUniqueName="[Products].[Manufacturer].[All]" allUniqueName="[Products].[Manufacturer].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Pack Size Bracket]" caption="Pack Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket].[All]" allUniqueName="[Products].[Pack Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Pack Size Bracket SORT]" caption="Pack Size Bracket SORT" attribute="1" defaultMemberUniqueName="[Products].[Pack Size Bracket SORT].[All]" allUniqueName="[Products].[Pack Size Bracket SORT].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Type]" caption="Pack Type" attribute="1" defaultMemberUniqueName="[Products].[Pack Type].[All]" allUniqueName="[Products].[Pack Type].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[PackConfiguration]" caption="PackConfiguration" attribute="1" defaultMemberUniqueName="[Products].[PackConfiguration].[All]" allUniqueName="[Products].[PackConfiguration].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Portion Count]" caption="Portion Count" attribute="1" defaultMemberUniqueName="[Products].[Portion Count].[All]" allUniqueName="[Products].[Portion Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -797,15 +1031,40 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket]" caption="Portion Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket].[All]" allUniqueName="[Products].[Portion Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product]" caption="Product" attribute="1" defaultMemberUniqueName="[Products].[Product].[All]" allUniqueName="[Products].[Product].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Product Status]" caption="Product Status" attribute="1" defaultMemberUniqueName="[Products].[Product Status].[All]" allUniqueName="[Products].[Product Status].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Size Bracket]" caption="Size Bracket" attribute="1" defaultMemberUniqueName="[Products].[Size Bracket].[All]" allUniqueName="[Products].[Size Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Special Pack]" caption="Special Pack" attribute="1" defaultMemberUniqueName="[Products].[Special Pack].[All]" allUniqueName="[Products].[Special Pack].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -841,7 +1100,12 @@
     <cacheHierarchy uniqueName="[Quadrant].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Quadrant].[Description].[All]" allUniqueName="[Quadrant].[Description].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Quadrant]" caption="Quadrant" attribute="1" defaultMemberUniqueName="[Quadrant].[Quadrant].[All]" allUniqueName="[Quadrant].[Quadrant].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rolling Sales].[Rolling Period]" caption="Rolling Period" attribute="1" defaultMemberUniqueName="[Rolling Sales].[Rolling Period].[All]" allUniqueName="[Rolling Sales].[Rolling Period].[All]" dimensionUniqueName="[Rolling Sales]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period]" caption="Prior Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period].[All]" allUniqueName="[Time Logic].[Prior Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period Full]" caption="Prior Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period Full].[All]" allUniqueName="[Time Logic].[Prior Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -951,7 +1215,6 @@
     <cacheHierarchy uniqueName="[Products].[Portion Size Bracket SORT]" caption="Portion Size Bracket SORT" attribute="1" defaultMemberUniqueName="[Products].[Portion Size Bracket SORT].[All]" allUniqueName="[Products].[Portion Size Bracket SORT].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Products].[Portion Size No]" caption="Portion Size No" attribute="1" defaultMemberUniqueName="[Products].[Portion Size No].[All]" allUniqueName="[Products].[Portion Size No].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Products].[PROD_ID]" caption="PROD_ID" attribute="1" defaultMemberUniqueName="[Products].[PROD_ID].[All]" allUniqueName="[Products].[PROD_ID].[All]" dimensionUniqueName="[Products]" displayFolder="zKeys" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Products].[Size Bracket SORT]" caption="Size Bracket SORT" attribute="1" defaultMemberUniqueName="[Products].[Size Bracket SORT].[All]" allUniqueName="[Products].[Size Bracket SORT].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Products].[Total Size No]" caption="Total Size No" attribute="1" defaultMemberUniqueName="[Products].[Total Size No].[All]" allUniqueName="[Products].[Total Size No].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Promo Description].[PROD_ID]" caption="PROD_ID" attribute="1" defaultMemberUniqueName="[Promo Description].[PROD_ID].[All]" allUniqueName="[Promo Description].[PROD_ID].[All]" dimensionUniqueName="[Promo Description]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Promo Description].[PROMO_ID]" caption="PROMO_ID" attribute="1" defaultMemberUniqueName="[Promo Description].[PROMO_ID].[All]" allUniqueName="[Promo Description].[PROMO_ID].[All]" dimensionUniqueName="[Promo Description]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
@@ -1131,7 +1394,11 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1233,7 +1500,11 @@
     <cacheHierarchy uniqueName="[Measures].[Yearly Seasonality Index]" caption="Yearly Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Seasonality Index]" caption="Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -2088,7 +2359,7 @@
     <cacheHierarchy uniqueName="[Measures].[Company WoB % DYA]" caption="Company WoB % DYA" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Product Image URL]" caption="Product Image URL" measure="1" displayFolder="" measureGroup="Products" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Item Image URL]" caption="Item Image URL" measure="1" displayFolder="" measureGroup="Products" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[SKU Image URL (Business Name)]" caption="SKU Image URL (Business Name)" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[SKU Image URL (SKU)]" caption="SKU Image URL (SKU)" measure="1" displayFolder="" measureGroup="Products" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Rolling Sales]" caption="Rolling Sales" measure="1" displayFolder="" measureGroup="Rolling Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[2nd Measure]" caption="2nd Measure" measure="1" displayFolder="" measureGroup="2nd Measure Table" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[2nd Measure YA]" caption="2nd Measure YA" measure="1" displayFolder="" measureGroup="2nd Measure Table" count="0"/>
@@ -3504,8 +3775,228 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3414" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:C48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="11" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="31">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="11">
+    <pageField fld="1" hier="149" name="[Scope].[Scope].&amp;[Category]" cap="Category"/>
+    <pageField fld="2" hier="81" name="[Products].[Category].[All]" cap="All"/>
+    <pageField fld="3" hier="113" name="[Products].[Top Brands].&amp;[Nicolas]" cap="Nicolas"/>
+    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[REVENUE]" cap="REVENUE"/>
+    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
+    <pageField fld="6" hier="59" name="[Market].[Channel].&amp;[CA E]" cap="CA E"/>
+    <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="8" hier="105" name="[Products].[Sector].[All]" cap="All"/>
+    <pageField fld="9" hier="106" name="[Products].[Segment].[All]" cap="All"/>
+    <pageField fld="10" hier="112" name="[Products].[SubSegment].[All]" cap="All"/>
+    <pageField fld="11" hier="111" name="[Products].[SubCategory].[All]" cap="All"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField fld="12" baseField="0" baseItem="0"/>
+    <dataField fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotHierarchies count="2647">
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -6155,7 +6646,13 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="35"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6461,101 +6958,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A4:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" vm="9">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" vm="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" vm="11">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" vm="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" vm="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" vm="10">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" vm="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s" vm="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s" vm="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s" vm="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s" vm="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>76398</v>
+      </c>
+      <c r="C18" s="3">
+        <v>31.608599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>69357</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32.124600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>81146</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32.252000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2">
+        <v>87461</v>
+      </c>
+      <c r="C21" s="3">
+        <v>31.460799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>88371</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30.6418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100885</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30.2776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>76415</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30.191600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50142</v>
+      </c>
+      <c r="C25" s="3">
+        <v>31.615400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>72321</v>
+      </c>
+      <c r="C26" s="3">
+        <v>30.541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>90412</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30.773299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2">
+        <v>97288</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30.885100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>210203</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31.543099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>100177</v>
+      </c>
+      <c r="C30" s="3">
+        <v>33.752400000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>67004</v>
+      </c>
+      <c r="C31" s="3">
+        <v>32.796900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>73142</v>
+      </c>
+      <c r="C32" s="3">
+        <v>32.725700000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>86691</v>
+      </c>
+      <c r="C33" s="3">
+        <v>34.333100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2">
+        <v>84331</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33.854300000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2">
+        <v>103816</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30.267099999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
+        <v>82756</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30.213899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2">
+        <v>55024</v>
+      </c>
+      <c r="C37" s="3">
+        <v>30.756799999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2">
+        <v>65922</v>
+      </c>
+      <c r="C38" s="3">
+        <v>32.4739</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2">
+        <v>86996</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
+        <v>116456</v>
+      </c>
+      <c r="C40" s="3">
+        <v>32.072699999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2">
+        <v>181824</v>
+      </c>
+      <c r="C41" s="3">
+        <v>33.191699999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2">
+        <v>75730</v>
+      </c>
+      <c r="C42" s="3">
+        <v>32.349400000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2">
+        <v>58824</v>
+      </c>
+      <c r="C43" s="3">
+        <v>32.535400000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2">
+        <v>64378</v>
+      </c>
+      <c r="C44" s="3">
+        <v>32.140799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2">
+        <v>80202</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31.588000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2">
+        <v>98357</v>
+      </c>
+      <c r="C46" s="3">
+        <v>31.017700000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>85746</v>
+      </c>
+      <c r="C47" s="3">
+        <v>32.162799999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2667775</v>
+      </c>
+      <c r="C48" s="3">
+        <v>31.726700000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Nicolas Sparkling Dataset.xlsx
+++ b/Nicolas Sparkling Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salma Hany\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2A1B84-B7B2-45F1-94BE-8C8086733A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105BA7D-9F28-457C-AED4-958F3E1D12E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3414" r:id="rId2"/>
+    <pivotCache cacheId="417" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,21 +52,15 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="12">
+  <metadataStrings count="6">
     <s v="pbiazure://api.powerbi.com f9d0d7e3-79df-4439-aadd-a36fbae1fff7 Model"/>
-    <s v="{[Products].[Segment].[All]}"/>
     <s v="{[Market].[Area].&amp;[REVENUE]}"/>
-    <s v="{[Products].[Category].[All]}"/>
     <s v="{[Market].[Region].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
-    <s v="{[Products].[Sector].[All]}"/>
-    <s v="{[Products].[SubSegment].[All]}"/>
-    <s v="{[Products].[SubCategory].[All]}"/>
-    <s v="{[Scope].[Scope].&amp;[Category]}"/>
     <s v="{[Market].[Channel].&amp;[CA E]}"/>
-    <s v="{[Products].[Top Brands].&amp;[Nicolas]}"/>
+    <s v="{[Products].[Category].&amp;[Effervescents]}"/>
   </metadataStrings>
-  <mdxMetadata count="11">
+  <mdxMetadata count="5">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -82,26 +76,8 @@
     <mdx n="0" f="s">
       <ms ns="5" c="0"/>
     </mdx>
-    <mdx n="0" f="s">
-      <ms ns="6" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="7" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="8" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="9" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="10" c="0"/>
-    </mdx>
-    <mdx n="0" f="s">
-      <ms ns="11" c="0"/>
-    </mdx>
   </mdxMetadata>
-  <valueMetadata count="11">
+  <valueMetadata count="5">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -117,30 +93,12 @@
     <bk>
       <rc t="1" v="4"/>
     </bk>
-    <bk>
-      <rc t="1" v="5"/>
-    </bk>
-    <bk>
-      <rc t="1" v="6"/>
-    </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
-    <bk>
-      <rc t="1" v="8"/>
-    </bk>
-    <bk>
-      <rc t="1" v="9"/>
-    </bk>
-    <bk>
-      <rc t="1" v="10"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>Area</t>
   </si>
@@ -149,12 +107,6 @@
   </si>
   <si>
     <t>Channel</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Segment</t>
   </si>
   <si>
     <t>REVENUE</t>
@@ -262,9 +214,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Top Brands</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -274,31 +223,115 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>SubSegment</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Av Price/KG</t>
-  </si>
-  <si>
     <t>CA E</t>
   </si>
   <si>
-    <t>Nicolas</t>
+    <t>Effervescents</t>
+  </si>
+  <si>
+    <t>Champagnes</t>
+  </si>
+  <si>
+    <t>Effervescents Sans Alcool</t>
+  </si>
+  <si>
+    <t>Mousseux</t>
+  </si>
+  <si>
+    <t>Jan-23 Total</t>
+  </si>
+  <si>
+    <t>Feb-23 Total</t>
+  </si>
+  <si>
+    <t>Mar-23 Total</t>
+  </si>
+  <si>
+    <t>Apr-23 Total</t>
+  </si>
+  <si>
+    <t>May-23 Total</t>
+  </si>
+  <si>
+    <t>Jun-23 Total</t>
+  </si>
+  <si>
+    <t>Jul-23 Total</t>
+  </si>
+  <si>
+    <t>Aug-23 Total</t>
+  </si>
+  <si>
+    <t>Sep-23 Total</t>
+  </si>
+  <si>
+    <t>Oct-23 Total</t>
+  </si>
+  <si>
+    <t>Nov-23 Total</t>
+  </si>
+  <si>
+    <t>Dec-23 Total</t>
+  </si>
+  <si>
+    <t>Jan-24 Total</t>
+  </si>
+  <si>
+    <t>Feb-24 Total</t>
+  </si>
+  <si>
+    <t>Mar-24 Total</t>
+  </si>
+  <si>
+    <t>Apr-24 Total</t>
+  </si>
+  <si>
+    <t>May-24 Total</t>
+  </si>
+  <si>
+    <t>Jun-24 Total</t>
+  </si>
+  <si>
+    <t>Jul-24 Total</t>
+  </si>
+  <si>
+    <t>Aug-24 Total</t>
+  </si>
+  <si>
+    <t>Sep-24 Total</t>
+  </si>
+  <si>
+    <t>Oct-24 Total</t>
+  </si>
+  <si>
+    <t>Nov-24 Total</t>
+  </si>
+  <si>
+    <t>Dec-24 Total</t>
+  </si>
+  <si>
+    <t>Jan-25 Total</t>
+  </si>
+  <si>
+    <t>Feb-25 Total</t>
+  </si>
+  <si>
+    <t>Mar-25 Total</t>
+  </si>
+  <si>
+    <t>Apr-25 Total</t>
+  </si>
+  <si>
+    <t>May-25 Total</t>
+  </si>
+  <si>
+    <t>Jun-25 Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;;#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,11 +791,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -822,9 +854,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45898.184309259261" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45898.482727546296" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="14">
+  <cacheFields count="8">
     <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
       <sharedItems count="30">
         <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
@@ -859,13 +891,14 @@
         <s v="[Calendar].[MonthYear].&amp;[Jun-25]" c="Jun-25"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="149" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="105" level="1">
+      <sharedItems count="3">
+        <s v="[Products].[Sector].&amp;[Champagnes]" c="Champagnes"/>
+        <s v="[Products].[Sector].&amp;[Effervescents Sans Alcool]" c="Effervescents Sans Alcool"/>
+        <s v="[Products].[Sector].&amp;[Mousseux]" c="Mousseux"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[Top Brands].[Top Brands]" caption="Top Brands" numFmtId="0" hierarchy="113" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -880,20 +913,7 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="105" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="106" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="112" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="111" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
     <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="438" level="32767"/>
-    <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="540" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2647">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -962,13 +982,13 @@
     <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -977,13 +997,13 @@
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="7"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1034,38 +1054,18 @@
     <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="8"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="9"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Special Pack]" caption="Special Pack" attribute="1" defaultMemberUniqueName="[Products].[Special Pack].[All]" allUniqueName="[Products].[Special Pack].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1100,16 +1100,11 @@
     <cacheHierarchy uniqueName="[Quadrant].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Quadrant].[Description].[All]" allUniqueName="[Quadrant].[Description].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Quadrant]" caption="Quadrant" attribute="1" defaultMemberUniqueName="[Quadrant].[Quadrant].[All]" allUniqueName="[Quadrant].[Quadrant].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rolling Sales].[Rolling Period]" caption="Rolling Period" attribute="1" defaultMemberUniqueName="[Rolling Sales].[Rolling Period].[All]" allUniqueName="[Rolling Sales].[Rolling Period].[All]" dimensionUniqueName="[Rolling Sales]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period]" caption="Prior Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period].[All]" allUniqueName="[Time Logic].[Prior Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period Full]" caption="Prior Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period Full].[All]" allUniqueName="[Time Logic].[Prior Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Time Period Full]" caption="Time Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period Full].[All]" allUniqueName="[Time Logic].[Time Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[VAT].[VAT]" caption="VAT" attribute="1" defaultMemberUniqueName="[VAT].[VAT].[All]" allUniqueName="[VAT].[VAT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[2nd Measure Table].[MEAS IX]" caption="MEAS IX" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[MEAS IX].[All]" allUniqueName="[2nd Measure Table].[MEAS IX].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
@@ -1396,7 +1391,7 @@
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="12"/>
+        <fieldUsage x="7"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1500,11 +1495,7 @@
     <cacheHierarchy uniqueName="[Measures].[Yearly Seasonality Index]" caption="Yearly Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Seasonality Index]" caption="Seasonality Index" measure="1" displayFolder="Seasonality" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Av Price/Unit]" caption="Av Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="13"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Av Price/KG]" caption="Av Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/Unit]" caption="YA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YA Price/KG]" caption="YA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[PP Price/KG]" caption="PP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
@@ -3775,9 +3766,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="3414" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:C48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="11" colPageCount="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="417" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:C137" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="5" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="31">
         <item x="0"/>
@@ -3813,33 +3804,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3869,133 +3838,418 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="121">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
     </i>
     <i>
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
     </i>
     <i>
       <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
     </i>
     <i>
       <x v="9"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
     </i>
     <i>
       <x v="10"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
     </i>
     <i>
       <x v="12"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="12"/>
     </i>
     <i>
       <x v="13"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="13"/>
     </i>
     <i>
       <x v="14"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="14"/>
     </i>
     <i>
       <x v="15"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="16"/>
     </i>
     <i>
       <x v="17"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="17"/>
     </i>
     <i>
       <x v="18"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="18"/>
     </i>
     <i>
       <x v="19"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="19"/>
     </i>
     <i>
       <x v="20"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="20"/>
     </i>
     <i>
       <x v="21"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="21"/>
     </i>
     <i>
       <x v="22"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="22"/>
     </i>
     <i>
       <x v="23"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="23"/>
     </i>
     <i>
       <x v="24"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="24"/>
     </i>
     <i>
       <x v="25"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="25"/>
     </i>
     <i>
       <x v="26"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="26"/>
     </i>
     <i>
       <x v="27"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="27"/>
     </i>
     <i>
       <x v="28"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="28"/>
     </i>
     <i>
       <x v="29"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="29"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="11">
-    <pageField fld="1" hier="149" name="[Scope].[Scope].&amp;[Category]" cap="Category"/>
-    <pageField fld="2" hier="81" name="[Products].[Category].[All]" cap="All"/>
-    <pageField fld="3" hier="113" name="[Products].[Top Brands].&amp;[Nicolas]" cap="Nicolas"/>
-    <pageField fld="4" hier="58" name="[Market].[Area].&amp;[REVENUE]" cap="REVENUE"/>
-    <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
-    <pageField fld="6" hier="59" name="[Market].[Channel].&amp;[CA E]" cap="CA E"/>
-    <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
-    <pageField fld="8" hier="105" name="[Products].[Sector].[All]" cap="All"/>
-    <pageField fld="9" hier="106" name="[Products].[Segment].[All]" cap="All"/>
-    <pageField fld="10" hier="112" name="[Products].[SubSegment].[All]" cap="All"/>
-    <pageField fld="11" hier="111" name="[Products].[SubCategory].[All]" cap="All"/>
+  <pageFields count="5">
+    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Effervescents]" cap="Effervescents"/>
+    <pageField fld="3" hier="58" name="[Market].[Area].&amp;[REVENUE]" cap="REVENUE"/>
+    <pageField fld="4" hier="64" name="[Market].[Region].[All]" cap="All"/>
+    <pageField fld="5" hier="59" name="[Market].[Channel].&amp;[CA E]" cap="CA E"/>
+    <pageField fld="6" hier="63" name="[Market].[Market].[All]" cap="All"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField fld="12" baseField="0" baseItem="0"/>
-    <dataField fld="13" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2647">
     <pivotHierarchy/>
@@ -6647,12 +6901,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
+  <rowHierarchiesUsage count="2">
     <rowHierarchyUsage hierarchyUsage="35"/>
+    <rowHierarchyUsage hierarchyUsage="105"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -6958,7 +7210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:C48"/>
+  <dimension ref="A10:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -6967,453 +7219,1119 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" vm="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" vm="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s" vm="9">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s" vm="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s" vm="3">
+      <c r="B14" t="s" vm="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s" vm="11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" vm="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" vm="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" vm="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s" vm="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s" vm="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s" vm="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C17" s="2">
+        <v>1060446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s" vm="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C18" s="2">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s" vm="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
-        <v>76398</v>
-      </c>
-      <c r="C18" s="3">
-        <v>31.608599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2">
-        <v>69357</v>
-      </c>
-      <c r="C19" s="3">
-        <v>32.124600000000001</v>
+      <c r="C19" s="2">
+        <v>71539</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2">
-        <v>81146</v>
-      </c>
-      <c r="C20" s="3">
-        <v>32.252000000000002</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1133175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2">
-        <v>87461</v>
-      </c>
-      <c r="C21" s="3">
-        <v>31.460799999999999</v>
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2">
+        <v>781755</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2">
-        <v>88371</v>
-      </c>
-      <c r="C22" s="3">
-        <v>30.6418</v>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2">
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2">
-        <v>100885</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30.2776</v>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>62646</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2">
-        <v>76415</v>
-      </c>
-      <c r="C24" s="3">
-        <v>30.191600000000001</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>845091</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>50142</v>
-      </c>
-      <c r="C25" s="3">
-        <v>31.615400000000001</v>
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>830221</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>72321</v>
-      </c>
-      <c r="C26" s="3">
-        <v>30.541</v>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1038</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="2">
-        <v>90412</v>
-      </c>
-      <c r="C27" s="3">
-        <v>30.773299999999999</v>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>63532</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2">
-        <v>97288</v>
-      </c>
-      <c r="C28" s="3">
-        <v>30.885100000000001</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="2">
+        <v>894791</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2">
-        <v>210203</v>
-      </c>
-      <c r="C29" s="3">
-        <v>31.543099999999999</v>
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>822697</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2">
-        <v>100177</v>
-      </c>
-      <c r="C30" s="3">
-        <v>33.752400000000002</v>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>932</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2">
-        <v>67004</v>
-      </c>
-      <c r="C31" s="3">
-        <v>32.796900000000001</v>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>72803</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2">
-        <v>73142</v>
-      </c>
-      <c r="C32" s="3">
-        <v>32.725700000000003</v>
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>896432</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="2">
-        <v>86691</v>
-      </c>
-      <c r="C33" s="3">
-        <v>34.333100000000002</v>
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2">
+        <v>842551</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="2">
-        <v>84331</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33.854300000000002</v>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1511</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2">
-        <v>103816</v>
-      </c>
-      <c r="C35" s="3">
-        <v>30.267099999999999</v>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>80712</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="2">
-        <v>82756</v>
-      </c>
-      <c r="C36" s="3">
-        <v>30.213899999999999</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="2">
+        <v>924774</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="2">
-        <v>55024</v>
-      </c>
-      <c r="C37" s="3">
-        <v>30.756799999999998</v>
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="2">
+        <v>983219</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="2">
-        <v>65922</v>
-      </c>
-      <c r="C38" s="3">
-        <v>32.4739</v>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1507</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="2">
-        <v>86996</v>
-      </c>
-      <c r="C39" s="3">
-        <v>30.27</v>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>90862</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2">
-        <v>116456</v>
-      </c>
-      <c r="C40" s="3">
-        <v>32.072699999999998</v>
+        <v>51</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1075588</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2">
-        <v>181824</v>
-      </c>
-      <c r="C41" s="3">
-        <v>33.191699999999997</v>
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="2">
+        <v>813461</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="2">
-        <v>75730</v>
-      </c>
-      <c r="C42" s="3">
-        <v>32.349400000000003</v>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1886</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="2">
-        <v>58824</v>
-      </c>
-      <c r="C43" s="3">
-        <v>32.535400000000003</v>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2">
+        <v>71308</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="2">
-        <v>64378</v>
-      </c>
-      <c r="C44" s="3">
-        <v>32.140799999999999</v>
+        <v>52</v>
+      </c>
+      <c r="C44" s="2">
+        <v>886655</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="2">
-        <v>80202</v>
-      </c>
-      <c r="C45" s="3">
-        <v>31.588000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2">
+        <v>501814</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="2">
-        <v>98357</v>
-      </c>
-      <c r="C46" s="3">
-        <v>31.017700000000001</v>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1229</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="2">
-        <v>85746</v>
-      </c>
-      <c r="C47" s="3">
-        <v>32.162799999999997</v>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="2">
+        <v>48781</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="2">
-        <v>2667775</v>
-      </c>
-      <c r="C48" s="3">
-        <v>31.726700000000001</v>
+        <v>53</v>
+      </c>
+      <c r="C48" s="2">
+        <v>551824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
+        <v>791154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2">
+        <v>66605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2">
+        <v>859646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>812160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="2">
+        <v>68643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2">
+        <v>882267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1053199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="2">
+        <v>80499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1135697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3373608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="2">
+        <v>161093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3545881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1313671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="2">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="2">
+        <v>95270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1418063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2">
+        <v>599995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="2">
+        <v>59075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="2">
+        <v>663770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="2">
+        <v>696746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="2">
+        <v>72558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2">
+        <v>774499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="2">
+        <v>603724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>64187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="2">
+        <v>672677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="2">
+        <v>762843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="2">
+        <v>68852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="2">
+        <v>837345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="2">
+        <v>801783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="2">
+        <v>77623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="2">
+        <v>884896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="2">
+        <v>673661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2">
+        <v>68283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="2">
+        <v>747438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="2">
+        <v>438381</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="2">
+        <v>47170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="2">
+        <v>488142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="2">
+        <v>649033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="2">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="2">
+        <v>61034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="2">
+        <v>714732</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="2">
+        <v>772537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="2">
+        <v>73294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="2">
+        <v>850559</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="2">
+        <v>910857</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="2">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="2">
+        <v>77914</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="2">
+        <v>995492</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2687823</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="2">
+        <v>20808</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="2">
+        <v>128502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2837133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="2">
+        <v>686084</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="2">
+        <v>12777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="2">
+        <v>63039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="2">
+        <v>761900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" s="2">
+        <v>525340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="2">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="2">
+        <v>50587</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="2">
+        <v>584365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" s="2">
+        <v>607629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="2">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="2">
+        <v>58821</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="2">
+        <v>675338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="2">
+        <v>635534</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="2">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="2">
+        <v>63935</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="2">
+        <v>707775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" s="2">
+        <v>732705</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="2">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="2">
+        <v>69272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="2">
+        <v>810505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="2">
+        <v>779981</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="2">
+        <v>9837</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="2">
+        <v>72039</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" s="2">
+        <v>861857</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="2">
+        <v>29918307</v>
       </c>
     </row>
   </sheetData>

--- a/Nicolas Sparkling Dataset.xlsx
+++ b/Nicolas Sparkling Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8105BA7D-9F28-457C-AED4-958F3E1D12E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048E8B36-DCFE-4DA0-A241-96E617862AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="417" r:id="rId2"/>
+    <pivotCache cacheId="14433" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,15 +52,20 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="6">
+  <metadataStrings count="11">
     <s v="pbiazure://api.powerbi.com f9d0d7e3-79df-4439-aadd-a36fbae1fff7 Model"/>
-    <s v="{[Market].[Area].&amp;[REVENUE]}"/>
     <s v="{[Market].[Region].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
+    <s v="{[Products].[Category].&amp;[Effervescents]}"/>
+    <s v="{[Scope].[Scope].&amp;[Segment]}"/>
+    <s v="{[Products].[Segment].&amp;[Mousseux Bordelais]}"/>
+    <s v="{[Market].[Area].&amp;[REVENUE]}"/>
     <s v="{[Market].[Channel].&amp;[CA E]}"/>
-    <s v="{[Products].[Category].&amp;[Effervescents]}"/>
+    <s v="{[Products].[Sector].[All]}"/>
+    <s v="{[Products].[SubSegment].[All]}"/>
+    <s v="{[Products].[SubCategory].[All]}"/>
   </metadataStrings>
-  <mdxMetadata count="5">
+  <mdxMetadata count="10">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -76,8 +81,23 @@
     <mdx n="0" f="s">
       <ms ns="5" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="6" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="7" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="8" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="9" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="10" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="5">
+  <valueMetadata count="10">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -93,12 +113,27 @@
     <bk>
       <rc t="1" v="4"/>
     </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>Area</t>
   </si>
@@ -107,108 +142,6 @@
   </si>
   <si>
     <t>Channel</t>
-  </si>
-  <si>
-    <t>REVENUE</t>
-  </si>
-  <si>
-    <t>Jan-23</t>
-  </si>
-  <si>
-    <t>Feb-23</t>
-  </si>
-  <si>
-    <t>Mar-23</t>
-  </si>
-  <si>
-    <t>Apr-23</t>
-  </si>
-  <si>
-    <t>May-23</t>
-  </si>
-  <si>
-    <t>Jun-23</t>
-  </si>
-  <si>
-    <t>Jul-23</t>
-  </si>
-  <si>
-    <t>Aug-23</t>
-  </si>
-  <si>
-    <t>Sep-23</t>
-  </si>
-  <si>
-    <t>Oct-23</t>
-  </si>
-  <si>
-    <t>Nov-23</t>
-  </si>
-  <si>
-    <t>Dec-23</t>
-  </si>
-  <si>
-    <t>Jan-24</t>
-  </si>
-  <si>
-    <t>Feb-24</t>
-  </si>
-  <si>
-    <t>Mar-24</t>
-  </si>
-  <si>
-    <t>Apr-24</t>
-  </si>
-  <si>
-    <t>May-24</t>
-  </si>
-  <si>
-    <t>Jun-24</t>
-  </si>
-  <si>
-    <t>Jul-24</t>
-  </si>
-  <si>
-    <t>Aug-24</t>
-  </si>
-  <si>
-    <t>Sep-24</t>
-  </si>
-  <si>
-    <t>Oct-24</t>
-  </si>
-  <si>
-    <t>Nov-24</t>
-  </si>
-  <si>
-    <t>Dec-24</t>
-  </si>
-  <si>
-    <t>Jan-25</t>
-  </si>
-  <si>
-    <t>Feb-25</t>
-  </si>
-  <si>
-    <t>Mar-25</t>
-  </si>
-  <si>
-    <t>Apr-25</t>
-  </si>
-  <si>
-    <t>May-25</t>
-  </si>
-  <si>
-    <t>Jun-25</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Value Sales</t>
-  </si>
-  <si>
-    <t>MonthYear</t>
   </si>
   <si>
     <t>Category</t>
@@ -220,118 +153,160 @@
     <t>Market</t>
   </si>
   <si>
+    <t>Effervescents</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Ean</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Mousseux Bordelais</t>
+  </si>
+  <si>
+    <t>Top Brands</t>
+  </si>
+  <si>
+    <t>Scraped Av. Price/Unit</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Scraped Av. Price/KG</t>
+  </si>
+  <si>
+    <t>End of Week</t>
+  </si>
+  <si>
+    <t>6/29/2025</t>
+  </si>
+  <si>
+    <t>7/6/2025</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>6/29/2025 Total</t>
+  </si>
+  <si>
+    <t>7/6/2025 Total</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Total Size</t>
+  </si>
+  <si>
+    <t>750ML</t>
+  </si>
+  <si>
+    <t>7/13/2025</t>
+  </si>
+  <si>
+    <t>7/13/2025 Total</t>
+  </si>
+  <si>
+    <t>7/20/2025</t>
+  </si>
+  <si>
+    <t>7/20/2025 Total</t>
+  </si>
+  <si>
+    <t>7/27/2025</t>
+  </si>
+  <si>
+    <t>7/27/2025 Total</t>
+  </si>
+  <si>
+    <t>8/3/2025</t>
+  </si>
+  <si>
+    <t>8/3/2025 Total</t>
+  </si>
+  <si>
+    <t>8/10/2025</t>
+  </si>
+  <si>
+    <t>8/10/2025 Total</t>
+  </si>
+  <si>
+    <t>8/17/2025</t>
+  </si>
+  <si>
+    <t>8/17/2025 Total</t>
+  </si>
+  <si>
+    <t>8/24/2025</t>
+  </si>
+  <si>
+    <t>8/24/2025 Total</t>
+  </si>
+  <si>
+    <t>8/31/2025</t>
+  </si>
+  <si>
+    <t>8/31/2025 Total</t>
+  </si>
+  <si>
+    <t>9/7/2025</t>
+  </si>
+  <si>
+    <t>9/7/2025 Total</t>
+  </si>
+  <si>
+    <t>9/14/2025</t>
+  </si>
+  <si>
+    <t>9/14/2025 Total</t>
+  </si>
+  <si>
+    <t>REVENUE</t>
   </si>
   <si>
     <t>CA E</t>
   </si>
   <si>
-    <t>Effervescents</t>
+    <t>SubSegment</t>
   </si>
   <si>
-    <t>Champagnes</t>
+    <t>SubCategory</t>
   </si>
   <si>
-    <t>Effervescents Sans Alcool</t>
+    <t>Cru La Maqueline</t>
   </si>
   <si>
-    <t>Mousseux</t>
+    <t>CRU LA MAQUELINE CREMANT B AC 1CT X 750ML</t>
   </si>
   <si>
-    <t>Jan-23 Total</t>
+    <t>Cru La Maqueline Total</t>
   </si>
   <si>
-    <t>Feb-23 Total</t>
+    <t>CRU LA MAQUELINE CREMANT B AC 1CT X 750ML Total</t>
   </si>
   <si>
-    <t>Mar-23 Total</t>
+    <t>229603</t>
   </si>
   <si>
-    <t>Apr-23 Total</t>
-  </si>
-  <si>
-    <t>May-23 Total</t>
-  </si>
-  <si>
-    <t>Jun-23 Total</t>
-  </si>
-  <si>
-    <t>Jul-23 Total</t>
-  </si>
-  <si>
-    <t>Aug-23 Total</t>
-  </si>
-  <si>
-    <t>Sep-23 Total</t>
-  </si>
-  <si>
-    <t>Oct-23 Total</t>
-  </si>
-  <si>
-    <t>Nov-23 Total</t>
-  </si>
-  <si>
-    <t>Dec-23 Total</t>
-  </si>
-  <si>
-    <t>Jan-24 Total</t>
-  </si>
-  <si>
-    <t>Feb-24 Total</t>
-  </si>
-  <si>
-    <t>Mar-24 Total</t>
-  </si>
-  <si>
-    <t>Apr-24 Total</t>
-  </si>
-  <si>
-    <t>May-24 Total</t>
-  </si>
-  <si>
-    <t>Jun-24 Total</t>
-  </si>
-  <si>
-    <t>Jul-24 Total</t>
-  </si>
-  <si>
-    <t>Aug-24 Total</t>
-  </si>
-  <si>
-    <t>Sep-24 Total</t>
-  </si>
-  <si>
-    <t>Oct-24 Total</t>
-  </si>
-  <si>
-    <t>Nov-24 Total</t>
-  </si>
-  <si>
-    <t>Dec-24 Total</t>
-  </si>
-  <si>
-    <t>Jan-25 Total</t>
-  </si>
-  <si>
-    <t>Feb-25 Total</t>
-  </si>
-  <si>
-    <t>Mar-25 Total</t>
-  </si>
-  <si>
-    <t>Apr-25 Total</t>
-  </si>
-  <si>
-    <t>May-25 Total</t>
-  </si>
-  <si>
-    <t>Jun-25 Total</t>
+    <t>229603 Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;;#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,7 +769,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -854,51 +829,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45898.482727546296" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45914.506543750002" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="8">
-    <cacheField name="[Calendar].[MonthYear].[MonthYear]" caption="MonthYear" numFmtId="0" hierarchy="35" level="1">
-      <sharedItems count="30">
-        <s v="[Calendar].[MonthYear].&amp;[Jan-23]" c="Jan-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-23]" c="Feb-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-23]" c="Mar-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-23]" c="Apr-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-23]" c="May-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-23]" c="Jun-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-23]" c="Jul-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-23]" c="Aug-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-23]" c="Sep-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-23]" c="Oct-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-23]" c="Nov-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-23]" c="Dec-23"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-24]" c="Jan-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-24]" c="Feb-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-24]" c="Mar-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-24]" c="Apr-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-24]" c="May-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-24]" c="Jun-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jul-24]" c="Jul-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Aug-24]" c="Aug-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Sep-24]" c="Sep-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Oct-24]" c="Oct-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Nov-24]" c="Nov-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Dec-24]" c="Dec-24"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jan-25]" c="Jan-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Feb-25]" c="Feb-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Mar-25]" c="Mar-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Apr-25]" c="Apr-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[May-25]" c="May-25"/>
-        <s v="[Calendar].[MonthYear].&amp;[Jun-25]" c="Jun-25"/>
-      </sharedItems>
+  <cacheFields count="17">
+    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="105" level="1">
-      <sharedItems count="3">
-        <s v="[Products].[Sector].&amp;[Champagnes]" c="Champagnes"/>
-        <s v="[Products].[Sector].&amp;[Effervescents Sans Alcool]" c="Effervescents Sans Alcool"/>
-        <s v="[Products].[Sector].&amp;[Mousseux]" c="Mousseux"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Products].[Category].[Category]" caption="Category" numFmtId="0" hierarchy="81" level="1">
+    <cacheField name="[Scope].[Scope].[Scope]" caption="Scope" numFmtId="0" hierarchy="149" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Market].[Area].[Area]" caption="Area" numFmtId="0" hierarchy="58" level="1">
@@ -913,7 +850,56 @@
     <cacheField name="[Market].[Market].[Market]" caption="Market" numFmtId="0" hierarchy="63" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="438" level="32767"/>
+    <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="105" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="106" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="112" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubCategory].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="111" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" numFmtId="0" hierarchy="586" level="32767"/>
+    <cacheField name="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" numFmtId="0" hierarchy="587" level="32767"/>
+    <cacheField name="[Calendar].[End of Week].[End of Week]" caption="End of Week" numFmtId="0" hierarchy="9" level="1">
+      <sharedItems count="12">
+        <s v="[Calendar].[End of Week].&amp;[2025-06-29T00:00:00]" c="6/29/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-07-06T00:00:00]" c="7/6/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-07-13T00:00:00]" c="7/13/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-07-20T00:00:00]" c="7/20/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-07-27T00:00:00]" c="7/27/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-08-03T00:00:00]" c="8/3/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-08-10T00:00:00]" c="8/10/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-08-17T00:00:00]" c="8/17/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-08-24T00:00:00]" c="8/24/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-08-31T00:00:00]" c="8/31/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-09-07T00:00:00]" c="9/7/2025"/>
+        <s v="[Calendar].[End of Week].&amp;[2025-09-14T00:00:00]" c="9/14/2025"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Top Brands].[Top Brands]" caption="Top Brands" numFmtId="0" hierarchy="113" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[Top Brands].&amp;[Cru La Maqueline]" c="Cru La Maqueline"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[SKU].[SKU]" caption="SKU" numFmtId="0" hierarchy="107" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[SKU].&amp;[CRU LA MAQUELINE CREMANT B AC 1CT X 750ML]" c="CRU LA MAQUELINE CREMANT B AC 1CT X 750ML"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Ean].[Ean]" caption="Ean" numFmtId="0" hierarchy="84" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[Ean].&amp;[229603]" c="229603"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Total Size].[Total Size]" caption="Total Size" numFmtId="0" hierarchy="115" level="1">
+      <sharedItems count="1">
+        <s v="[Products].[Total Size].&amp;[750ML]" c="750ML"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="2647">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -925,7 +911,12 @@
     <cacheHierarchy uniqueName="[Calendar].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Calendar].[Date].[All]" allUniqueName="[Calendar].[Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Day].[All]" allUniqueName="[Calendar].[Day].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[DayOfYear]" caption="DayOfYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[DayOfYear].[All]" allUniqueName="[Calendar].[DayOfYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="12"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalf]" caption="FiscalHalf" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalf].[All]" allUniqueName="[Calendar].[FiscalHalf].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfDate]" caption="FiscalHalfDate" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfDate].[All]" allUniqueName="[Calendar].[FiscalHalfDate].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfName]" caption="FiscalHalfName" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfName].[All]" allUniqueName="[Calendar].[FiscalHalfName].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -951,12 +942,7 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthLong]" caption="MonthLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthLong].[All]" allUniqueName="[Calendar].[MonthLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthNum]" caption="MonthNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthNum].[All]" allUniqueName="[Calendar].[MonthNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthStart]" caption="MonthStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthStart].[All]" allUniqueName="[Calendar].[MonthStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearNum]" caption="MonthYearNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearNum].[All]" allUniqueName="[Calendar].[MonthYearNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -982,13 +968,13 @@
     <cacheHierarchy uniqueName="[Market].[Area]" caption="Area" attribute="1" defaultMemberUniqueName="[Market].[Area].[All]" allUniqueName="[Market].[Area].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Channel]" caption="Channel" attribute="1" defaultMemberUniqueName="[Market].[Channel].[All]" allUniqueName="[Market].[Channel].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="5"/>
+        <fieldUsage x="4"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -997,13 +983,13 @@
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Market].[Region].[All]" allUniqueName="[Market].[Region].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[Measure Table].[Measures].[All]" allUniqueName="[Measure Table].[Measures].[All]" dimensionUniqueName="[Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1017,7 +1003,7 @@
     <cacheHierarchy uniqueName="[ProductNames].[ProductMaster]" caption="ProductMaster" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductMaster].[All]" allUniqueName="[ProductNames].[ProductMaster].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[ProductName]" caption="ProductName" attribute="1" defaultMemberUniqueName="[ProductNames].[ProductName].[All]" allUniqueName="[ProductNames].[ProductName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[ProductNames].[SourceName]" caption="SourceName" attribute="1" defaultMemberUniqueName="[ProductNames].[SourceName].[All]" allUniqueName="[ProductNames].[SourceName].[All]" dimensionUniqueName="[ProductNames]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Brand]" caption="Brand" attribute="1" defaultMemberUniqueName="[Products].[Brand].[All]" allUniqueName="[Products].[Brand].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Brand Logo URL]" caption="Brand Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Brand Logo URL].[All]" allUniqueName="[Products].[Brand Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[BrandType]" caption="BrandType" attribute="1" defaultMemberUniqueName="[Products].[BrandType].[All]" allUniqueName="[Products].[BrandType].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Bundle]" caption="Bundle" attribute="1" defaultMemberUniqueName="[Products].[Bundle].[All]" allUniqueName="[Products].[Bundle].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1025,12 +1011,17 @@
     <cacheHierarchy uniqueName="[Products].[Category]" caption="Category" attribute="1" defaultMemberUniqueName="[Products].[Category].[All]" allUniqueName="[Products].[Category].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Company Logo URL]" caption="Company Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Company Logo URL].[All]" allUniqueName="[Products].[Company Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="15"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Financials]" caption="Financials" attribute="1" defaultMemberUniqueName="[Products].[Financials].[All]" allUniqueName="[Products].[Financials].[All]" dimensionUniqueName="[Products]" displayFolder="zKeys" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Flavor]" caption="Flavor" attribute="1" defaultMemberUniqueName="[Products].[Flavor].[All]" allUniqueName="[Products].[Flavor].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Image URL]" caption="Image URL" attribute="1" defaultMemberUniqueName="[Products].[Image URL].[All]" allUniqueName="[Products].[Image URL].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1054,19 +1045,49 @@
     <cacheHierarchy uniqueName="[Products].[Sector]" caption="Sector" attribute="1" defaultMemberUniqueName="[Products].[Sector].[All]" allUniqueName="[Products].[Sector].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="6"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="14"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Special Pack]" caption="Special Pack" attribute="1" defaultMemberUniqueName="[Products].[Special Pack].[All]" allUniqueName="[Products].[Special Pack].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="16"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Version]" caption="Version" attribute="1" defaultMemberUniqueName="[Products].[Version].[All]" allUniqueName="[Products].[Version].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1100,11 +1121,16 @@
     <cacheHierarchy uniqueName="[Quadrant].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[Quadrant].[Description].[All]" allUniqueName="[Quadrant].[Description].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Quadrant].[Quadrant]" caption="Quadrant" attribute="1" defaultMemberUniqueName="[Quadrant].[Quadrant].[All]" allUniqueName="[Quadrant].[Quadrant].[All]" dimensionUniqueName="[Quadrant]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Rolling Sales].[Rolling Period]" caption="Rolling Period" attribute="1" defaultMemberUniqueName="[Rolling Sales].[Rolling Period].[All]" allUniqueName="[Rolling Sales].[Rolling Period].[All]" dimensionUniqueName="[Rolling Sales]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Scope].[Scope]" caption="Scope" attribute="1" defaultMemberUniqueName="[Scope].[Scope].[All]" allUniqueName="[Scope].[Scope].[All]" dimensionUniqueName="[Scope]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Shelf Price Ladder].[Shelf Price Group]" caption="Shelf Price Group" attribute="1" defaultMemberUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" allUniqueName="[Shelf Price Ladder].[Shelf Price Group].[All]" dimensionUniqueName="[Shelf Price Ladder]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period]" caption="Prior Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period].[All]" allUniqueName="[Time Logic].[Prior Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Prior Period Full]" caption="Prior Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Prior Period Full].[All]" allUniqueName="[Time Logic].[Prior Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time Logic].[Time Period]" caption="Time Period" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period].[All]" allUniqueName="[Time Logic].[Time Period].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time Logic].[Time Period Full]" caption="Time Period Full" attribute="1" defaultMemberUniqueName="[Time Logic].[Time Period Full].[All]" allUniqueName="[Time Logic].[Time Period Full].[All]" dimensionUniqueName="[Time Logic]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[VAT].[VAT]" caption="VAT" attribute="1" defaultMemberUniqueName="[VAT].[VAT].[All]" allUniqueName="[VAT].[VAT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[2nd Measure Table].[MEAS IX]" caption="MEAS IX" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[MEAS IX].[All]" allUniqueName="[2nd Measure Table].[MEAS IX].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
@@ -1389,11 +1415,7 @@
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="7"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales YA]" caption="Unit Sales YA" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales PP]" caption="Volume Sales PP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1541,8 +1563,16 @@
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Price]" caption="Scraped Max Price" measure="1" displayFolder="Scraped Price\Max Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Position]" caption="Scraped Max Position" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Max Page No]" caption="Scraped Max Page No" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/Unit]" caption="Scraped Av. Price/Unit" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price/KG]" caption="Scraped Av. Price/KG" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Price]" caption="Scraped Av. Price" measure="1" displayFolder="Scraped Price\Av. Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Position]" caption="Scraped Av. Position" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Scraped Av. Page No]" caption="Scraped Av. Page No" measure="1" displayFolder="Scraped Price\Position" measureGroup="Price Metrics" count="0"/>
@@ -3766,49 +3796,31 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="417" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:C137" firstHeaderRow="1" firstDataRow="1" firstDataCol="2" rowPageCount="5" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="31">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="14433" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:G78" firstHeaderRow="1" firstDataRow="2" firstDataCol="5" rowPageCount="10" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
@@ -3838,21 +3850,72 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
+  <rowFields count="5">
+    <field x="12"/>
+    <field x="13"/>
+    <field x="14"/>
+    <field x="15"/>
+    <field x="16"/>
   </rowFields>
-  <rowItems count="121">
+  <rowItems count="61">
     <i>
       <x/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x/>
@@ -3860,12 +3923,18 @@
     <i>
       <x v="1"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="1"/>
@@ -3873,12 +3942,18 @@
     <i>
       <x v="2"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="2"/>
@@ -3886,12 +3961,18 @@
     <i>
       <x v="3"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="3"/>
@@ -3899,12 +3980,18 @@
     <i>
       <x v="4"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="4"/>
@@ -3912,12 +3999,18 @@
     <i>
       <x v="5"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="5"/>
@@ -3925,12 +4018,18 @@
     <i>
       <x v="6"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="6"/>
@@ -3938,12 +4037,18 @@
     <i>
       <x v="7"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="7"/>
@@ -3951,12 +4056,18 @@
     <i>
       <x v="8"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="8"/>
@@ -3964,12 +4075,18 @@
     <i>
       <x v="9"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="9"/>
@@ -3977,12 +4094,18 @@
     <i>
       <x v="10"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="10"/>
@@ -3990,266 +4113,52 @@
     <i>
       <x v="11"/>
       <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i t="default" r="3">
+      <x/>
     </i>
-    <i r="1">
-      <x v="2"/>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
     </i>
     <i t="default">
       <x v="11"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
     <i>
-      <x v="12"/>
       <x/>
     </i>
-    <i r="1">
+    <i i="1">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="29"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
-  <pageFields count="5">
-    <pageField fld="2" hier="81" name="[Products].[Category].&amp;[Effervescents]" cap="Effervescents"/>
-    <pageField fld="3" hier="58" name="[Market].[Area].&amp;[REVENUE]" cap="REVENUE"/>
-    <pageField fld="4" hier="64" name="[Market].[Region].[All]" cap="All"/>
-    <pageField fld="5" hier="59" name="[Market].[Channel].&amp;[CA E]" cap="CA E"/>
-    <pageField fld="6" hier="63" name="[Market].[Market].[All]" cap="All"/>
+  <pageFields count="10">
+    <pageField fld="0" hier="81" name="[Products].[Category].&amp;[Effervescents]" cap="Effervescents"/>
+    <pageField fld="1" hier="149" name="[Scope].[Scope].&amp;[Segment]" cap="Segment"/>
+    <pageField fld="2" hier="58" name="[Market].[Area].&amp;[REVENUE]" cap="REVENUE"/>
+    <pageField fld="3" hier="64" name="[Market].[Region].[All]" cap="All"/>
+    <pageField fld="4" hier="59" name="[Market].[Channel].&amp;[CA E]" cap="CA E"/>
+    <pageField fld="5" hier="63" name="[Market].[Market].[All]" cap="All"/>
+    <pageField fld="6" hier="105" name="[Products].[Sector].[All]" cap="All"/>
+    <pageField fld="7" hier="106" name="[Products].[Segment].&amp;[Mousseux Bordelais]" cap="Mousseux Bordelais"/>
+    <pageField fld="8" hier="112" name="[Products].[SubSegment].[All]" cap="All"/>
+    <pageField fld="9" hier="111" name="[Products].[SubCategory].[All]" cap="All"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField fld="7" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField fld="10" baseField="0" baseItem="0"/>
+    <dataField fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2647">
     <pivotHierarchy/>
@@ -4287,7 +4196,7 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy/>
+    <pivotHierarchy multipleItemSelectionAllowed="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -6901,10 +6810,16 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="35"/>
-    <rowHierarchyUsage hierarchyUsage="105"/>
+  <rowHierarchiesUsage count="5">
+    <rowHierarchyUsage hierarchyUsage="9"/>
+    <rowHierarchyUsage hierarchyUsage="113"/>
+    <rowHierarchyUsage hierarchyUsage="107"/>
+    <rowHierarchyUsage hierarchyUsage="84"/>
+    <rowHierarchyUsage hierarchyUsage="115"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -7210,1128 +7125,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:C137"/>
+  <dimension ref="A5:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" vm="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" vm="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" vm="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" vm="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" vm="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" vm="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" vm="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s" vm="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" vm="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s" vm="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s" vm="5">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>42</v>
       </c>
+      <c r="F72" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G72" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s" vm="1">
-        <v>3</v>
-      </c>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G73" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s" vm="2">
-        <v>1</v>
-      </c>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G74" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s" vm="4">
-        <v>41</v>
-      </c>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G75" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s" vm="3">
-        <v>1</v>
-      </c>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G76" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G77" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1060446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2">
-        <v>71539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1133175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2">
-        <v>781755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2">
-        <v>62646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <v>845091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2">
-        <v>830221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2">
-        <v>63532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2">
-        <v>894791</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2">
-        <v>822697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2">
-        <v>72803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2">
-        <v>896432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2">
-        <v>842551</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2">
-        <v>80712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2">
-        <v>924774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="2">
-        <v>983219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2">
-        <v>90862</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1075588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2">
-        <v>813461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="2">
-        <v>71308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="2">
-        <v>886655</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="2">
-        <v>501814</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2">
-        <v>48781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="2">
-        <v>551824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="2">
-        <v>791154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2">
-        <v>66605</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="2">
-        <v>859646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="2">
-        <v>812160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="2">
-        <v>68643</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2">
-        <v>882267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1053199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="2">
-        <v>80499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1135697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3373608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="2">
-        <v>11180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="2">
-        <v>161093</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="2">
-        <v>3545881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1313671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="2">
-        <v>9122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="2">
-        <v>95270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1418063</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="2">
-        <v>599995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="2">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="2">
-        <v>59075</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="2">
-        <v>663770</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="2">
-        <v>696746</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="2">
-        <v>5195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="2">
-        <v>72558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="2">
-        <v>774499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2">
-        <v>603724</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="2">
-        <v>4766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="2">
-        <v>64187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="2">
-        <v>672677</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="2">
-        <v>762843</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="2">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="2">
-        <v>68852</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="2">
-        <v>837345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="2">
-        <v>801783</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="2">
-        <v>5490</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="2">
-        <v>77623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" s="2">
-        <v>884896</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="2">
-        <v>673661</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="2">
-        <v>5494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="2">
-        <v>68283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="2">
-        <v>747438</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="2">
-        <v>438381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="2">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="2">
-        <v>47170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="2">
-        <v>488142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" s="2">
-        <v>649033</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="2">
-        <v>4665</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="2">
-        <v>61034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="2">
-        <v>714732</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C101" s="2">
-        <v>772537</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C102" s="2">
-        <v>4728</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="2">
-        <v>73294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>67</v>
-      </c>
-      <c r="C104" s="2">
-        <v>850559</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" t="s">
-        <v>43</v>
-      </c>
-      <c r="C105" s="2">
-        <v>910857</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="2">
-        <v>6721</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="2">
-        <v>77914</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="2">
-        <v>995492</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" t="s">
-        <v>43</v>
-      </c>
-      <c r="C109" s="2">
-        <v>2687823</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" s="2">
-        <v>20808</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="2">
-        <v>128502</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2837133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" t="s">
-        <v>43</v>
-      </c>
-      <c r="C113" s="2">
-        <v>686084</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" s="2">
-        <v>12777</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="2">
-        <v>63039</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>70</v>
-      </c>
-      <c r="C116" s="2">
-        <v>761900</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>29</v>
-      </c>
-      <c r="B117" t="s">
-        <v>43</v>
-      </c>
-      <c r="C117" s="2">
-        <v>525340</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C118" s="2">
-        <v>8438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>45</v>
-      </c>
-      <c r="C119" s="2">
-        <v>50587</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>71</v>
-      </c>
-      <c r="C120" s="2">
-        <v>584365</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>30</v>
-      </c>
-      <c r="B121" t="s">
-        <v>43</v>
-      </c>
-      <c r="C121" s="2">
-        <v>607629</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="2">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>45</v>
-      </c>
-      <c r="C123" s="2">
-        <v>58821</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>72</v>
-      </c>
-      <c r="C124" s="2">
-        <v>675338</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" t="s">
-        <v>43</v>
-      </c>
-      <c r="C125" s="2">
-        <v>635534</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>44</v>
-      </c>
-      <c r="C126" s="2">
-        <v>8306</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>45</v>
-      </c>
-      <c r="C127" s="2">
-        <v>63935</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>73</v>
-      </c>
-      <c r="C128" s="2">
-        <v>707775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" t="s">
-        <v>43</v>
-      </c>
-      <c r="C129" s="2">
-        <v>732705</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>44</v>
-      </c>
-      <c r="C130" s="2">
-        <v>8528</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>45</v>
-      </c>
-      <c r="C131" s="2">
-        <v>69272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132" s="2">
-        <v>810505</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="2">
-        <v>779981</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C134" s="2">
-        <v>9837</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>45</v>
-      </c>
-      <c r="C135" s="2">
-        <v>72039</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>75</v>
-      </c>
-      <c r="C136" s="2">
-        <v>861857</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="2">
-        <v>29918307</v>
+      <c r="F78" s="2">
+        <v>10.725</v>
+      </c>
+      <c r="G78" s="2">
+        <v>11.8537</v>
       </c>
     </row>
   </sheetData>
